--- a/biology/Microbiologie/Membrane_externe/Membrane_externe.xlsx
+++ b/biology/Microbiologie/Membrane_externe/Membrane_externe.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La membrane externe est située à la surface de l'enveloppe des négibactéries (Gram négatives). Elle est constituée d'un double feuillet lipidique asymétrique. Le feuillet interne est essentiellement constitué de phospholipides, alors que le feuillet externe contient une majorité de lipopolysaccharides (LPS) excepté chez les chlorobactéries.
